--- a/weedingProcess.xlsx
+++ b/weedingProcess.xlsx
@@ -252,7 +252,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3990470075360751E-2"/>
+          <c:y val="7.3796004206098845E-2"/>
+          <c:w val="0.93570910074008984"/>
+          <c:h val="0.69923942472490619"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -262,14 +272,28 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -484,6 +508,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="408131920"/>
         <c:axId val="408131136"/>
@@ -495,34 +520,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -644,20 +641,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1651,7 +1634,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
